--- a/documents/Scientific_method_trajectories.xlsx
+++ b/documents/Scientific_method_trajectories.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Structure of the course" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Structure of the course'!$A$2:$P$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Structure of the course'!$A$2:$P$256</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="268">
   <si>
     <t>Module</t>
   </si>
@@ -820,6 +820,18 @@
   </si>
   <si>
     <t>Phi personal</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Uptake of CO2 by vegetation</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -959,7 +971,133 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1503,16 +1641,20 @@
     <hyperlink ref="A2" r:id="rId1" display="https://scientific-method-course.github.io"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T255"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,6 +1750,39 @@
       <c r="A3">
         <v>0</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="O3" t="s">
         <v>13</v>
       </c>
@@ -1619,6 +1794,39 @@
       <c r="B4">
         <v>0.1</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O4" t="s">
         <v>13</v>
       </c>
@@ -1782,6 +1990,39 @@
       <c r="A15">
         <v>1</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="O15" t="s">
         <v>26</v>
       </c>
@@ -1793,6 +2034,39 @@
       <c r="B16">
         <v>1.1000000000000001</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O16" t="s">
         <v>27</v>
       </c>
@@ -1844,6 +2118,39 @@
       <c r="B19">
         <v>1.2</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O19" t="s">
         <v>30</v>
       </c>
@@ -1858,6 +2165,39 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O20" t="s">
         <v>31</v>
       </c>
@@ -1892,6 +2232,39 @@
       <c r="C22" t="s">
         <v>32</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O22" t="s">
         <v>33</v>
       </c>
@@ -1946,6 +2319,39 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O25" t="s">
         <v>36</v>
       </c>
@@ -2020,6 +2426,39 @@
       <c r="C29" t="s">
         <v>41</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
@@ -2051,6 +2490,39 @@
       <c r="B31">
         <v>1.3</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O31" t="s">
         <v>46</v>
       </c>
@@ -2065,6 +2537,39 @@
       <c r="C32" t="s">
         <v>45</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O32" t="s">
         <v>31</v>
       </c>
@@ -2099,6 +2604,39 @@
       <c r="C34" t="s">
         <v>47</v>
       </c>
+      <c r="D34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O34" t="s">
         <v>48</v>
       </c>
@@ -2173,6 +2711,39 @@
       <c r="C38" t="s">
         <v>53</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O38" t="s">
         <v>54</v>
       </c>
@@ -2224,6 +2795,39 @@
       <c r="B41">
         <v>1.4</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O41" t="s">
         <v>58</v>
       </c>
@@ -2238,6 +2842,39 @@
       <c r="C42" t="s">
         <v>57</v>
       </c>
+      <c r="D42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O42" t="s">
         <v>31</v>
       </c>
@@ -2275,6 +2912,39 @@
       <c r="C44" t="s">
         <v>59</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O44" t="s">
         <v>60</v>
       </c>
@@ -2309,6 +2979,39 @@
       <c r="C46" t="s">
         <v>62</v>
       </c>
+      <c r="D46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O46" t="s">
         <v>61</v>
       </c>
@@ -2486,6 +3189,39 @@
       <c r="C55" t="s">
         <v>65</v>
       </c>
+      <c r="D55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O55" t="s">
         <v>66</v>
       </c>
@@ -2600,6 +3336,39 @@
       <c r="B61">
         <v>1.5</v>
       </c>
+      <c r="D61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O61" t="s">
         <v>10</v>
       </c>
@@ -2614,6 +3383,39 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
+      <c r="D62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O62" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +3448,40 @@
         <v>1.5</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="O64" t="s">
         <v>77</v>
@@ -2679,6 +3514,39 @@
       <c r="B66">
         <v>1.6</v>
       </c>
+      <c r="D66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O66" t="s">
         <v>11</v>
       </c>
@@ -2693,6 +3561,39 @@
       <c r="C67" t="s">
         <v>78</v>
       </c>
+      <c r="D67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O67" t="s">
         <v>31</v>
       </c>
@@ -2727,6 +3628,39 @@
       <c r="C69" t="s">
         <v>80</v>
       </c>
+      <c r="D69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O69" t="s">
         <v>79</v>
       </c>
@@ -2761,6 +3695,39 @@
       <c r="C71" t="s">
         <v>82</v>
       </c>
+      <c r="D71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O71" t="s">
         <v>81</v>
       </c>
@@ -2789,6 +3756,39 @@
       <c r="A73">
         <v>2</v>
       </c>
+      <c r="D73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="O73" t="s">
         <v>84</v>
       </c>
@@ -2800,6 +3800,39 @@
       <c r="B74">
         <v>2.1</v>
       </c>
+      <c r="D74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O74" t="s">
         <v>27</v>
       </c>
@@ -2814,6 +3847,39 @@
       <c r="C75" t="s">
         <v>85</v>
       </c>
+      <c r="D75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O75" t="s">
         <v>31</v>
       </c>
@@ -2854,6 +3920,39 @@
       <c r="C77" t="s">
         <v>87</v>
       </c>
+      <c r="D77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O77" t="s">
         <v>31</v>
       </c>
@@ -2885,6 +3984,39 @@
       <c r="C79" t="s">
         <v>89</v>
       </c>
+      <c r="D79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O79" t="s">
         <v>88</v>
       </c>
@@ -2999,6 +4131,39 @@
       <c r="C85" t="s">
         <v>95</v>
       </c>
+      <c r="D85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O85" t="s">
         <v>96</v>
       </c>
@@ -3033,6 +4198,39 @@
       <c r="C87" t="s">
         <v>97</v>
       </c>
+      <c r="D87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O87" t="s">
         <v>98</v>
       </c>
@@ -3084,6 +4282,39 @@
       <c r="B90">
         <v>2.2999999999999998</v>
       </c>
+      <c r="D90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O90" t="s">
         <v>46</v>
       </c>
@@ -3098,6 +4329,39 @@
       <c r="C91" t="s">
         <v>101</v>
       </c>
+      <c r="D91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O91" t="s">
         <v>31</v>
       </c>
@@ -3132,6 +4396,39 @@
       <c r="C93" t="s">
         <v>103</v>
       </c>
+      <c r="D93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O93" t="s">
         <v>102</v>
       </c>
@@ -3206,6 +4503,39 @@
       <c r="C97" t="s">
         <v>107</v>
       </c>
+      <c r="D97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O97" t="s">
         <v>54</v>
       </c>
@@ -3237,6 +4567,39 @@
       <c r="B99">
         <v>2.4</v>
       </c>
+      <c r="D99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O99" t="s">
         <v>109</v>
       </c>
@@ -3251,6 +4614,39 @@
       <c r="C100" t="s">
         <v>110</v>
       </c>
+      <c r="D100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O100" t="s">
         <v>31</v>
       </c>
@@ -3288,6 +4684,39 @@
       <c r="C102" t="s">
         <v>111</v>
       </c>
+      <c r="D102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O102" t="s">
         <v>112</v>
       </c>
@@ -3342,6 +4771,39 @@
       <c r="C105" t="s">
         <v>115</v>
       </c>
+      <c r="D105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O105" t="s">
         <v>66</v>
       </c>
@@ -3436,6 +4898,39 @@
       <c r="C110" t="s">
         <v>131</v>
       </c>
+      <c r="D110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O110" t="s">
         <v>132</v>
       </c>
@@ -3561,6 +5056,39 @@
       <c r="B117">
         <v>2.5</v>
       </c>
+      <c r="D117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O117" t="s">
         <v>139</v>
       </c>
@@ -3575,6 +5103,39 @@
       <c r="C118" t="s">
         <v>140</v>
       </c>
+      <c r="D118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O118" t="s">
         <v>31</v>
       </c>
@@ -3609,6 +5170,39 @@
       <c r="C120" t="s">
         <v>141</v>
       </c>
+      <c r="D120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O120" t="s">
         <v>77</v>
       </c>
@@ -3640,6 +5234,39 @@
       <c r="B122">
         <v>2.6</v>
       </c>
+      <c r="D122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O122" t="s">
         <v>11</v>
       </c>
@@ -3654,6 +5281,39 @@
       <c r="C123" t="s">
         <v>143</v>
       </c>
+      <c r="D123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O123" t="s">
         <v>31</v>
       </c>
@@ -3688,6 +5348,39 @@
       <c r="C125" t="s">
         <v>144</v>
       </c>
+      <c r="D125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O125" t="s">
         <v>79</v>
       </c>
@@ -3722,6 +5415,39 @@
       <c r="C127" t="s">
         <v>147</v>
       </c>
+      <c r="D127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O127" t="s">
         <v>146</v>
       </c>
@@ -3750,6 +5476,39 @@
       <c r="A129">
         <v>3</v>
       </c>
+      <c r="D129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="O129" t="s">
         <v>150</v>
       </c>
@@ -3761,6 +5520,39 @@
       <c r="B130">
         <v>3.1</v>
       </c>
+      <c r="D130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O130" t="s">
         <v>27</v>
       </c>
@@ -3775,6 +5567,39 @@
       <c r="C131" t="s">
         <v>151</v>
       </c>
+      <c r="D131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O131" t="s">
         <v>28</v>
       </c>
@@ -3812,6 +5637,39 @@
       <c r="B133">
         <v>3.2</v>
       </c>
+      <c r="D133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O133" t="s">
         <v>7</v>
       </c>
@@ -3826,6 +5684,39 @@
       <c r="C134" t="s">
         <v>152</v>
       </c>
+      <c r="D134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O134" t="s">
         <v>31</v>
       </c>
@@ -3860,6 +5751,39 @@
       <c r="C136" t="s">
         <v>153</v>
       </c>
+      <c r="D136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O136" t="s">
         <v>154</v>
       </c>
@@ -3914,6 +5838,39 @@
       <c r="C139" t="s">
         <v>158</v>
       </c>
+      <c r="D139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O139" t="s">
         <v>157</v>
       </c>
@@ -3945,6 +5902,39 @@
       <c r="C141" t="s">
         <v>160</v>
       </c>
+      <c r="D141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O141" t="s">
         <v>161</v>
       </c>
@@ -3996,6 +5986,39 @@
       <c r="B144">
         <v>3.3</v>
       </c>
+      <c r="D144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O144" t="s">
         <v>46</v>
       </c>
@@ -4010,6 +6033,39 @@
       <c r="C145" t="s">
         <v>164</v>
       </c>
+      <c r="D145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O145" t="s">
         <v>31</v>
       </c>
@@ -4044,6 +6100,39 @@
       <c r="C147" t="s">
         <v>165</v>
       </c>
+      <c r="D147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O147" t="s">
         <v>54</v>
       </c>
@@ -4075,6 +6164,39 @@
       <c r="B149">
         <v>3.4</v>
       </c>
+      <c r="D149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O149" t="s">
         <v>167</v>
       </c>
@@ -4089,6 +6211,39 @@
       <c r="C150" t="s">
         <v>168</v>
       </c>
+      <c r="D150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O150" t="s">
         <v>31</v>
       </c>
@@ -4126,6 +6281,39 @@
       <c r="C152" t="s">
         <v>171</v>
       </c>
+      <c r="D152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O152" t="s">
         <v>170</v>
       </c>
@@ -4180,6 +6368,39 @@
       <c r="C155" t="s">
         <v>174</v>
       </c>
+      <c r="D155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O155" t="s">
         <v>66</v>
       </c>
@@ -4297,6 +6518,39 @@
       <c r="C161" t="s">
         <v>178</v>
       </c>
+      <c r="D161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O161" t="s">
         <v>177</v>
       </c>
@@ -4388,6 +6642,39 @@
       <c r="B166">
         <v>3.5</v>
       </c>
+      <c r="D166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O166" t="s">
         <v>139</v>
       </c>
@@ -4402,6 +6689,39 @@
       <c r="C167" t="s">
         <v>183</v>
       </c>
+      <c r="D167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O167" t="s">
         <v>31</v>
       </c>
@@ -4433,6 +6753,39 @@
       <c r="C169" t="s">
         <v>184</v>
       </c>
+      <c r="D169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O169" t="s">
         <v>185</v>
       </c>
@@ -4464,6 +6817,39 @@
       <c r="B171">
         <v>3.6</v>
       </c>
+      <c r="D171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M171" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N171" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O171" t="s">
         <v>11</v>
       </c>
@@ -4512,6 +6898,39 @@
       <c r="C174" t="s">
         <v>188</v>
       </c>
+      <c r="D174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O174" t="s">
         <v>79</v>
       </c>
@@ -4546,6 +6965,39 @@
       <c r="C176" t="s">
         <v>190</v>
       </c>
+      <c r="D176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O176" t="s">
         <v>191</v>
       </c>
@@ -4574,6 +7026,39 @@
       <c r="A178">
         <v>4</v>
       </c>
+      <c r="D178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M178" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N178" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="O178" t="s">
         <v>192</v>
       </c>
@@ -4585,6 +7070,39 @@
       <c r="B179">
         <v>4.0999999999999996</v>
       </c>
+      <c r="D179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M179" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N179" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O179" t="s">
         <v>27</v>
       </c>
@@ -4599,6 +7117,39 @@
       <c r="C180" t="s">
         <v>193</v>
       </c>
+      <c r="D180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N180" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O180" t="s">
         <v>28</v>
       </c>
@@ -4636,6 +7187,39 @@
       <c r="B182">
         <v>4.2</v>
       </c>
+      <c r="D182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N182" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="O182" t="s">
         <v>7</v>
       </c>
@@ -4650,6 +7234,39 @@
       <c r="C183" t="s">
         <v>194</v>
       </c>
+      <c r="D183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O183" t="s">
         <v>31</v>
       </c>
@@ -4684,6 +7301,39 @@
       <c r="C185" t="s">
         <v>195</v>
       </c>
+      <c r="D185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="O185" t="s">
         <v>196</v>
       </c>
@@ -4718,11 +7368,38 @@
       <c r="C187" t="s">
         <v>198</v>
       </c>
+      <c r="D187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H187" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N187" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="O187" t="s">
         <v>199</v>
@@ -4733,10 +7410,19 @@
         <v>4</v>
       </c>
       <c r="B188">
-        <v>4.3</v>
-      </c>
-      <c r="O188" t="s">
-        <v>46</v>
+        <v>4.2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>198</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P188" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
@@ -4746,11 +7432,41 @@
       <c r="B189">
         <v>4.3</v>
       </c>
-      <c r="C189" t="s">
-        <v>200</v>
+      <c r="D189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O189" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
@@ -4764,12 +7480,39 @@
         <v>200</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P190" t="s">
+        <v>267</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O190" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4781,7 +7524,7 @@
         <v>4.3</v>
       </c>
       <c r="C191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>15</v>
@@ -4789,8 +7532,8 @@
       <c r="J191" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O191" t="s">
-        <v>54</v>
+      <c r="P191" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
@@ -4803,14 +7546,41 @@
       <c r="C192" t="s">
         <v>201</v>
       </c>
+      <c r="D192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H192" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P192" t="s">
-        <v>202</v>
+        <v>267</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O192" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
@@ -4830,7 +7600,7 @@
         <v>15</v>
       </c>
       <c r="P193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
@@ -4838,10 +7608,19 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O194" t="s">
-        <v>204</v>
+        <v>4.3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>201</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P194" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
@@ -4851,11 +7630,41 @@
       <c r="B195">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C195" t="s">
-        <v>205</v>
+      <c r="D195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M195" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O195" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
@@ -4869,12 +7678,39 @@
         <v>205</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P196" t="s">
+        <v>267</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O196" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4886,10 +7722,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
-      </c>
-      <c r="O197" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P197" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
@@ -4902,14 +7744,41 @@
       <c r="C198" t="s">
         <v>207</v>
       </c>
+      <c r="D198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G198" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P198" t="s">
-        <v>209</v>
+        <v>267</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O198" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
@@ -4920,10 +7789,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C199" t="s">
-        <v>210</v>
-      </c>
-      <c r="O199" t="s">
-        <v>66</v>
+        <v>207</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P199" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
@@ -4936,14 +7811,41 @@
       <c r="C200" t="s">
         <v>210</v>
       </c>
+      <c r="D200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="H200" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P200" t="s">
-        <v>211</v>
+        <v>267</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O200" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
@@ -4963,7 +7865,7 @@
         <v>15</v>
       </c>
       <c r="P201" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
@@ -4979,11 +7881,11 @@
       <c r="H202" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L202" s="4" t="s">
+      <c r="K202" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P202" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
@@ -4999,14 +7901,11 @@
       <c r="H203" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K203" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="L203" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P203" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
@@ -5017,21 +7916,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C204" t="s">
-        <v>206</v>
-      </c>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
-      <c r="O204" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P204" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
@@ -5044,23 +7941,41 @@
       <c r="C205" t="s">
         <v>206</v>
       </c>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="H205" t="s">
-        <v>15</v>
-      </c>
-      <c r="I205"/>
-      <c r="J205"/>
-      <c r="K205" t="s">
-        <v>15</v>
-      </c>
-      <c r="L205"/>
-      <c r="M205"/>
-      <c r="N205"/>
-      <c r="P205" t="s">
-        <v>214</v>
+      <c r="D205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O205" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
@@ -5089,7 +8004,7 @@
       <c r="M206"/>
       <c r="N206"/>
       <c r="P206" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
@@ -5111,14 +8026,14 @@
       </c>
       <c r="I207"/>
       <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207" t="s">
-        <v>15</v>
-      </c>
+      <c r="K207" t="s">
+        <v>15</v>
+      </c>
+      <c r="L207"/>
       <c r="M207"/>
       <c r="N207"/>
       <c r="P207" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
@@ -5140,14 +8055,14 @@
       </c>
       <c r="I208"/>
       <c r="J208"/>
-      <c r="K208" t="s">
-        <v>15</v>
-      </c>
-      <c r="L208"/>
+      <c r="K208"/>
+      <c r="L208" t="s">
+        <v>15</v>
+      </c>
       <c r="M208"/>
       <c r="N208"/>
       <c r="P208" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
@@ -5169,14 +8084,14 @@
       </c>
       <c r="I209"/>
       <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209" t="s">
-        <v>15</v>
-      </c>
+      <c r="K209" t="s">
+        <v>15</v>
+      </c>
+      <c r="L209"/>
       <c r="M209"/>
       <c r="N209"/>
       <c r="P209" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
@@ -5198,16 +8113,14 @@
       </c>
       <c r="I210"/>
       <c r="J210"/>
-      <c r="K210" t="s">
-        <v>15</v>
-      </c>
+      <c r="K210"/>
       <c r="L210" t="s">
         <v>15</v>
       </c>
       <c r="M210"/>
       <c r="N210"/>
       <c r="P210" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
@@ -5215,21 +8128,30 @@
         <v>4</v>
       </c>
       <c r="B211">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C211" t="s">
+        <v>206</v>
       </c>
       <c r="D211"/>
       <c r="E211"/>
       <c r="F211"/>
       <c r="G211"/>
-      <c r="H211"/>
+      <c r="H211" t="s">
+        <v>15</v>
+      </c>
       <c r="I211"/>
       <c r="J211"/>
-      <c r="K211"/>
-      <c r="L211"/>
+      <c r="K211" t="s">
+        <v>15</v>
+      </c>
+      <c r="L211" t="s">
+        <v>15</v>
+      </c>
       <c r="M211"/>
       <c r="N211"/>
-      <c r="O211" t="s">
-        <v>139</v>
+      <c r="P211" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
@@ -5239,11 +8161,41 @@
       <c r="B212">
         <v>4.5</v>
       </c>
-      <c r="C212" t="s">
-        <v>220</v>
+      <c r="D212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M212" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N212" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O212" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
@@ -5257,12 +8209,39 @@
         <v>220</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P213" t="s">
+        <v>267</v>
+      </c>
+      <c r="N213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O213" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5274,10 +8253,16 @@
         <v>4.5</v>
       </c>
       <c r="C214" t="s">
-        <v>222</v>
-      </c>
-      <c r="O214" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M214" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P214" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
@@ -5290,14 +8275,41 @@
       <c r="C215" t="s">
         <v>222</v>
       </c>
+      <c r="D215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G215" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L215" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P215" t="s">
-        <v>223</v>
+        <v>267</v>
+      </c>
+      <c r="N215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O215" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
@@ -5310,11 +8322,14 @@
       <c r="C216" t="s">
         <v>222</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="G216" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M216" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P216" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
@@ -5322,10 +8337,16 @@
         <v>4</v>
       </c>
       <c r="B217">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="O217" t="s">
-        <v>11</v>
+        <v>4.5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P217" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
@@ -5335,11 +8356,41 @@
       <c r="B218">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C218" t="s">
-        <v>225</v>
+      <c r="D218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M218" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N218" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O218" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
@@ -5353,12 +8404,39 @@
         <v>225</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M219" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P219" t="s">
+        <v>267</v>
+      </c>
+      <c r="O219" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5370,10 +8448,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C220" t="s">
-        <v>226</v>
-      </c>
-      <c r="O220" t="s">
-        <v>79</v>
+        <v>225</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P220" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
@@ -5386,14 +8470,41 @@
       <c r="C221" t="s">
         <v>226</v>
       </c>
+      <c r="D221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G221" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M221" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P221" t="s">
-        <v>227</v>
+        <v>267</v>
+      </c>
+      <c r="O221" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
@@ -5406,14 +8517,14 @@
       <c r="C222" t="s">
         <v>226</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="G222" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N222" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
@@ -5424,10 +8535,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
-      </c>
-      <c r="O223" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P223" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
@@ -5440,33 +8557,102 @@
       <c r="C224" t="s">
         <v>229</v>
       </c>
+      <c r="D224" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E224" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M224" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="N224" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P224" t="s">
-        <v>148</v>
+        <v>267</v>
+      </c>
+      <c r="O224" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>5</v>
-      </c>
-      <c r="O225" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C225" t="s">
+        <v>229</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P225" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>5</v>
       </c>
-      <c r="B226">
-        <v>5.0999999999999996</v>
+      <c r="D226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N226" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="O226" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
@@ -5476,11 +8662,41 @@
       <c r="B227">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C227" t="s">
-        <v>232</v>
+      <c r="D227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N227" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O227" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
@@ -5493,10 +8709,7 @@
       <c r="C228" t="s">
         <v>232</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P228" t="s">
+      <c r="O228" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5505,10 +8718,16 @@
         <v>5</v>
       </c>
       <c r="B229">
-        <v>5.2</v>
-      </c>
-      <c r="O229" t="s">
-        <v>233</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C229" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P229" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
@@ -5518,11 +8737,41 @@
       <c r="B230">
         <v>5.2</v>
       </c>
-      <c r="C230" t="s">
-        <v>234</v>
+      <c r="D230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N230" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O230" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
@@ -5535,23 +8784,41 @@
       <c r="C231" t="s">
         <v>234</v>
       </c>
+      <c r="D231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G231" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P231" t="s">
-        <v>243</v>
+        <v>267</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O231" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
@@ -5562,10 +8829,25 @@
         <v>5.2</v>
       </c>
       <c r="C232" t="s">
-        <v>236</v>
-      </c>
-      <c r="O232" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P232" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
@@ -5578,23 +8860,41 @@
       <c r="C233" t="s">
         <v>236</v>
       </c>
+      <c r="D233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G233" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P233" t="s">
-        <v>244</v>
+        <v>267</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O233" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
@@ -5602,10 +8902,28 @@
         <v>5</v>
       </c>
       <c r="B234">
-        <v>5.3</v>
-      </c>
-      <c r="O234" t="s">
-        <v>238</v>
+        <v>5.2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P234" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
@@ -5615,11 +8933,41 @@
       <c r="B235">
         <v>5.3</v>
       </c>
-      <c r="C235" t="s">
-        <v>237</v>
+      <c r="D235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M235" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O235" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
@@ -5632,23 +8980,41 @@
       <c r="C236" t="s">
         <v>237</v>
       </c>
+      <c r="D236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G236" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P236" t="s">
-        <v>242</v>
+        <v>267</v>
+      </c>
+      <c r="L236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O236" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
@@ -5659,10 +9025,25 @@
         <v>5.3</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
-      </c>
-      <c r="O237" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P237" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
@@ -5675,42 +9056,111 @@
       <c r="C238" t="s">
         <v>239</v>
       </c>
+      <c r="D238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G238" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P238" t="s">
-        <v>258</v>
+        <v>267</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O238" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>6</v>
-      </c>
-      <c r="O239" t="s">
-        <v>245</v>
+        <v>5</v>
+      </c>
+      <c r="B239">
+        <v>5.3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>239</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P239" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>6</v>
       </c>
-      <c r="B240">
-        <v>6.1</v>
+      <c r="D240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="O240" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
@@ -5720,11 +9170,41 @@
       <c r="B241">
         <v>6.1</v>
       </c>
-      <c r="C241" t="s">
-        <v>246</v>
+      <c r="D241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N241" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O241" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
@@ -5737,10 +9217,7 @@
       <c r="C242" t="s">
         <v>246</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P242" t="s">
+      <c r="O242" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5749,10 +9226,16 @@
         <v>6</v>
       </c>
       <c r="B243">
-        <v>6.2</v>
-      </c>
-      <c r="O243" t="s">
-        <v>247</v>
+        <v>6.1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P243" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
@@ -5762,11 +9245,41 @@
       <c r="B244">
         <v>6.2</v>
       </c>
-      <c r="C244" t="s">
-        <v>248</v>
+      <c r="D244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O244" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
@@ -5779,32 +9292,41 @@
       <c r="C245" t="s">
         <v>248</v>
       </c>
+      <c r="D245" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="F245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="L245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P245" t="s">
-        <v>250</v>
+        <v>267</v>
+      </c>
+      <c r="O245" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
@@ -5817,7 +9339,10 @@
       <c r="C246" t="s">
         <v>248</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="F246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I246" s="4" t="s">
@@ -5839,7 +9364,7 @@
         <v>15</v>
       </c>
       <c r="P246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
@@ -5850,10 +9375,31 @@
         <v>6.2</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
-      </c>
-      <c r="O247" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P247" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
@@ -5866,38 +9412,41 @@
       <c r="C248" t="s">
         <v>253</v>
       </c>
+      <c r="D248" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="L248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P248" t="s">
-        <v>252</v>
+        <v>267</v>
+      </c>
+      <c r="O248" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
@@ -5908,10 +9457,40 @@
         <v>6.2</v>
       </c>
       <c r="C249" t="s">
-        <v>255</v>
-      </c>
-      <c r="O249" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P249" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
@@ -5924,32 +9503,41 @@
       <c r="C250" t="s">
         <v>255</v>
       </c>
+      <c r="D250" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M250" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P250" t="s">
-        <v>256</v>
+        <v>267</v>
+      </c>
+      <c r="O250" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
@@ -5957,10 +9545,37 @@
         <v>6</v>
       </c>
       <c r="B251">
-        <v>6.3</v>
-      </c>
-      <c r="O251" t="s">
-        <v>238</v>
+        <v>6.2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>255</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P251" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
@@ -5970,11 +9585,41 @@
       <c r="B252">
         <v>6.3</v>
       </c>
-      <c r="C252" t="s">
-        <v>257</v>
+      <c r="D252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M252" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N252" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="O252" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
@@ -5987,32 +9632,41 @@
       <c r="C253" t="s">
         <v>257</v>
       </c>
+      <c r="D253" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="L253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M253" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P253" t="s">
-        <v>242</v>
+        <v>267</v>
+      </c>
+      <c r="O253" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
@@ -6023,10 +9677,34 @@
         <v>6.3</v>
       </c>
       <c r="C254" t="s">
-        <v>260</v>
-      </c>
-      <c r="O254" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P254" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
@@ -6039,134 +9717,215 @@
       <c r="C255" t="s">
         <v>260</v>
       </c>
+      <c r="D255" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="E255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P255" t="s">
+        <v>267</v>
+      </c>
+      <c r="O255" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>6</v>
+      </c>
+      <c r="B256">
+        <v>6.3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>260</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P256" t="s">
         <v>259</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P128"/>
+  <autoFilter ref="A2:P256"/>
   <conditionalFormatting sqref="P43">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="41" priority="34">
       <formula>$O43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:C43">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>$O43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>($O3&gt;0)*($B3&gt;0)*(ISBLANK($C3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:O52 Q52:T52 A53:T58 Q59:T60 P59 A59:O60 A3:T51 A61:T230 A231:O231 Q231:T231 A232:T232 A234:T235 A233:O233 Q233:T233 B236:T245 A237:A245 D246:T246 A247:T250 A256:T1008">
-    <cfRule type="expression" dxfId="20" priority="10">
+  <conditionalFormatting sqref="A52:O52 Q52:T52 Q59:T60 P59 A59:O60 A232:O232 Q232:T232 A234:O234 Q234:T234 A238:A246 D247:T247 A257:T1009 A3:T51 A53:T58 A61:T231 A233:T233 A235:T236 B237:T246 A248:T251">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>($O3&gt;0)*(ISBLANK($B3))*(ISBLANK($C3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>($O3&gt;0)*($B3&gt;0)*(ISBLANK($C3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>($O3&gt;0)*($B3&gt;0)*($C3&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>(#REF!&gt;0)*(ISBLANK(#REF!))*(ISBLANK(#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="37" priority="43">
       <formula>(#REF!&gt;0)*(#REF!&gt;0)*(ISBLANK(#REF!))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26">
+    <cfRule type="expression" dxfId="36" priority="44">
       <formula>(#REF!&gt;0)*(#REF!&gt;0)*(#REF!&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60">
-    <cfRule type="expression" dxfId="14" priority="30">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>($O59&gt;0)*(ISBLANK($B59))*(ISBLANK($C59))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="31">
+    <cfRule type="expression" dxfId="34" priority="49">
       <formula>($O59&gt;0)*($B59&gt;0)*(ISBLANK($C59))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="32">
+    <cfRule type="expression" dxfId="33" priority="50">
       <formula>($O59&gt;0)*($B59&gt;0)*($C59&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P231">
-    <cfRule type="expression" dxfId="11" priority="36">
-      <formula>($O233&gt;0)*(ISBLANK($B233))*(ISBLANK($C233))</formula>
+  <conditionalFormatting sqref="P232">
+    <cfRule type="expression" dxfId="32" priority="54">
+      <formula>($O234&gt;0)*(ISBLANK($B234))*(ISBLANK($C234))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="37">
-      <formula>($O233&gt;0)*($B233&gt;0)*(ISBLANK($C233))</formula>
+    <cfRule type="expression" dxfId="31" priority="55">
+      <formula>($O234&gt;0)*($B234&gt;0)*(ISBLANK($C234))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="38">
-      <formula>($O233&gt;0)*($B233&gt;0)*($C233&gt;0)</formula>
+    <cfRule type="expression" dxfId="30" priority="56">
+      <formula>($O234&gt;0)*($B234&gt;0)*($C234&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A246:C246">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>($O246&gt;0)*(ISBLANK($B246))*(ISBLANK($C246))</formula>
+  <conditionalFormatting sqref="A247:C247">
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>($O247&gt;0)*(ISBLANK($B247))*(ISBLANK($C247))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>($O246&gt;0)*($B246&gt;0)*(ISBLANK($C246))</formula>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>($O247&gt;0)*($B247&gt;0)*(ISBLANK($C247))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>($O246&gt;0)*($B246&gt;0)*($C246&gt;0)</formula>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>($O247&gt;0)*($B247&gt;0)*($C247&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B251:T255">
+  <conditionalFormatting sqref="B254:T254 B252:C253 O252:T253 B256:T256 B255:C255 O255:T255">
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>($O252&gt;0)*(ISBLANK($B252))*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>($O252&gt;0)*($B252&gt;0)*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>($O252&gt;0)*($B252&gt;0)*($C252&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252:A256">
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>($O252&gt;0)*(ISBLANK($B252))*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>($O252&gt;0)*($B252&gt;0)*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>($O252&gt;0)*($B252&gt;0)*($C252&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D252:N252">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>($O252&gt;0)*(ISBLANK($B252))*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>($O252&gt;0)*($B252&gt;0)*(ISBLANK($C252))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>($O252&gt;0)*($B252&gt;0)*($C252&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D253:N253">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>($O251&gt;0)*(ISBLANK($B251))*(ISBLANK($C251))</formula>
+      <formula>($O253&gt;0)*(ISBLANK($B253))*(ISBLANK($C253))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>($O251&gt;0)*($B251&gt;0)*(ISBLANK($C251))</formula>
+      <formula>($O253&gt;0)*($B253&gt;0)*(ISBLANK($C253))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>($O251&gt;0)*($B251&gt;0)*($C251&gt;0)</formula>
+      <formula>($O253&gt;0)*($B253&gt;0)*($C253&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A251:A255">
+  <conditionalFormatting sqref="D255:N255">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>($O251&gt;0)*(ISBLANK($B251))*(ISBLANK($C251))</formula>
+      <formula>($O255&gt;0)*(ISBLANK($B255))*(ISBLANK($C255))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>($O251&gt;0)*($B251&gt;0)*(ISBLANK($C251))</formula>
+      <formula>($O255&gt;0)*($B255&gt;0)*(ISBLANK($C255))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>($O251&gt;0)*($B251&gt;0)*($C251&gt;0)</formula>
+      <formula>($O255&gt;0)*($B255&gt;0)*($C255&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>